--- a/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>17.10086115834708</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20.78967695825471</v>
+        <v>20.7896769582547</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4515617409102107</v>
@@ -649,7 +649,7 @@
         <v>0.8293066122820451</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.7372306869842947</v>
+        <v>0.7372306869842944</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.155659048614818</v>
+        <v>2.260670658028687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.479768226441674</v>
+        <v>8.54673563449399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.634519516920404</v>
+        <v>9.643005940120169</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.86922864458829</v>
+        <v>14.00936736912616</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1000822830543483</v>
+        <v>0.07437390134356879</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3603955838965563</v>
+        <v>0.3527808018842195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3520144316386364</v>
+        <v>0.3805284195901938</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4224697209875425</v>
+        <v>0.4360370755028227</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.16715279703165</v>
+        <v>19.06936147944147</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.94580987965399</v>
+        <v>23.76744372650372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.01612449982213</v>
+        <v>24.58460373343221</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27.47924652286795</v>
+        <v>27.83043371997175</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9168204632671139</v>
+        <v>0.9125290525499514</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.414937170805103</v>
+        <v>1.451842044631363</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.404244604891629</v>
+        <v>1.47999070432031</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.116793207858581</v>
+        <v>1.132000224294267</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>14.32819442945647</v>
+        <v>14.56830875060658</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.602814551877579</v>
+        <v>9.554480743938372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.623109347435645</v>
+        <v>4.044646094809658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.941368094288639</v>
+        <v>5.055618284726497</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5662927839783801</v>
+        <v>0.5795552412000078</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5345874616511067</v>
+        <v>0.522888721081094</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2255241636779017</v>
+        <v>0.2665659697263876</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1842002207057936</v>
+        <v>0.1889608243940804</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>25.950123265223</v>
+        <v>26.12264600231959</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>20.21565004946397</v>
+        <v>19.89708700299806</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.35464849801829</v>
+        <v>13.68421526129194</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16.15854851137717</v>
+        <v>15.45447334974338</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.368372768837063</v>
+        <v>1.389208763427011</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.72387341098816</v>
+        <v>1.671805208635162</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.224946191177399</v>
+        <v>1.25768439376646</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8105185306796427</v>
+        <v>0.7612279209567622</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.406726902710272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.504774508697123</v>
+        <v>3.504774508697134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.07400060750426</v>
@@ -849,7 +849,7 @@
         <v>0.7102032580998688</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1048917316858318</v>
+        <v>0.1048917316858322</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.824186228101492</v>
+        <v>7.871050299824797</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.020108179124847</v>
+        <v>3.815926233369883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.490141557210834</v>
+        <v>3.012107965329757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.981392154874984</v>
+        <v>-3.463966495550356</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4767083995985505</v>
+        <v>0.4728725416135358</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2111685723738265</v>
+        <v>0.2003133758797384</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2119126029186569</v>
+        <v>0.1827151608022352</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.07951536798796607</v>
+        <v>-0.09403381389156867</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.03833811651414</v>
+        <v>19.71583161633942</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.31393183857845</v>
+        <v>17.14876649862391</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.59612022245929</v>
+        <v>15.37373075221942</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.405360036452759</v>
+        <v>9.75846547908422</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.946113755482073</v>
+        <v>1.92727779985628</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.27219685975</v>
+        <v>1.286768900713636</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.55736272283979</v>
+        <v>1.418062103169517</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3092766070792686</v>
+        <v>0.3282438206718106</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.503591568968082</v>
+        <v>6.957634387875617</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>12.03545548810043</v>
+        <v>11.67881940620265</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.993566134914647</v>
+        <v>8.354112544274276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.528611024351565</v>
+        <v>5.94232671716371</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3042813875600148</v>
+        <v>0.2898802994702022</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6119029715480254</v>
+        <v>0.5897864916228165</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3154622784254701</v>
+        <v>0.3024797325895754</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1846967149908577</v>
+        <v>0.1740059458482819</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>20.20872552320334</v>
+        <v>19.91894605707418</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.34463058909382</v>
+        <v>24.73609231026849</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.96974275921201</v>
+        <v>22.04895482179136</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20.72481696693938</v>
+        <v>20.65784774834371</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.096921543327652</v>
+        <v>1.112533893746034</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.779175125982938</v>
+        <v>1.844512761685868</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.144880111820806</v>
+        <v>1.167562737016928</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8153948005520698</v>
+        <v>0.8258007100029328</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.299040634585935</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.258311284539838</v>
+        <v>9.258311284539822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5125851497328465</v>
@@ -1049,7 +1049,7 @@
         <v>0.3328526735011397</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4108553173535056</v>
+        <v>0.4108553173535048</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.03197307635628286</v>
+        <v>0.7113089387998554</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>14.57418790093314</v>
+        <v>15.9528447493628</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.217094778301042</v>
+        <v>-1.058140119865835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.65251262877557</v>
+        <v>2.872206753054333</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.0072248394764513</v>
+        <v>0.01741123602382801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5589356498291985</v>
+        <v>0.5916589133664847</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.08709072664503012</v>
+        <v>-0.03536602683410962</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1061167142832888</v>
+        <v>0.1019741704838153</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.02759262688293</v>
+        <v>16.57408253687647</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>33.58200961846226</v>
+        <v>34.42770655666332</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.86858535367677</v>
+        <v>15.34777556121302</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15.79122717447566</v>
+        <v>15.52652048023043</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.330046984331345</v>
+        <v>1.477613751707327</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.947831992529774</v>
+        <v>1.955052944565015</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8156845121508787</v>
+        <v>0.8773476671931861</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.852109339327348</v>
+        <v>0.8233293599467485</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>8.977525207999303</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11.0504291247992</v>
+        <v>11.05042912479918</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5431518635817598</v>
@@ -1149,7 +1149,7 @@
         <v>0.4104825738972833</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2529155596940594</v>
+        <v>0.2529155596940589</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.511283503357935</v>
+        <v>2.95615432250278</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.722340094053068</v>
+        <v>-3.353380980431726</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.028740890722323</v>
+        <v>1.472813194034214</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.806162341358684</v>
+        <v>3.655550327474762</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1429469156850482</v>
+        <v>0.1191823638331351</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1389701694499777</v>
+        <v>-0.1219306955625434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0626319137869861</v>
+        <v>0.05409601474064668</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0838716553618464</v>
+        <v>0.07483474530630208</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.69498116947453</v>
+        <v>17.52659854184955</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>11.49901305196928</v>
+        <v>11.73403007520177</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.83195767045711</v>
+        <v>16.33032781145465</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.97571162793289</v>
+        <v>18.14421906960565</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.078451378559178</v>
+        <v>1.091315229841934</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5350253061136473</v>
+        <v>0.5615330702378597</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8966331675753385</v>
+        <v>0.9086781942666499</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4551824401592897</v>
+        <v>0.4493092054135042</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>8.235422022438732</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8.322477420484059</v>
+        <v>8.322477420484054</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4715463545876452</v>
@@ -1249,7 +1249,7 @@
         <v>0.3566168661891828</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.3097581879234415</v>
+        <v>0.3097581879234412</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.334535244582513</v>
+        <v>2.415589645180384</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.442326683713594</v>
+        <v>7.284696794595194</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.309652768818766</v>
+        <v>3.590666053712479</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.017350439428494</v>
+        <v>3.241996623385313</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.143111504326714</v>
+        <v>0.1483126422075695</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3660152815453459</v>
+        <v>0.4239189502142761</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1290535467019099</v>
+        <v>0.1358277981262933</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.09978256489214932</v>
+        <v>0.1104515977709653</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.63039606128708</v>
+        <v>11.05218582665061</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.25977496497643</v>
+        <v>16.50418688218292</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.44311225721658</v>
+        <v>13.02203738242896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.9407841064792</v>
+        <v>12.98217166439987</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8868577010730626</v>
+        <v>0.8903472830484267</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.245392596400405</v>
+        <v>1.307102608736556</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5945426787456214</v>
+        <v>0.6350495098191752</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5335655221652883</v>
+        <v>0.554277901797281</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.6281433029708642</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.6056027321614235</v>
+        <v>0.6056027321614232</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.417530612118635</v>
+        <v>2.901888752214958</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.181410514720515</v>
+        <v>3.460540022627594</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.046849184793037</v>
+        <v>6.039612270237352</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7.309031281986841</v>
+        <v>7.252089955579584</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1677343389035245</v>
+        <v>0.1403176710919982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1167227034552535</v>
+        <v>0.1356241493635684</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3367266792392582</v>
+        <v>0.3403974077485941</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3697389392503969</v>
+        <v>0.3551202153269473</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.18141659446249</v>
+        <v>11.70104615282927</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.27542333614269</v>
+        <v>13.02667086097703</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.81787294160315</v>
+        <v>14.1880722269538</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14.90442331782785</v>
+        <v>14.92349547190302</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7470079809474948</v>
+        <v>0.7117438916303528</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5596817341877399</v>
+        <v>0.6170364851161173</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.990618430362693</v>
+        <v>1.029120586336909</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9309993714060251</v>
+        <v>0.9452302706991109</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>10.25480769650377</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10.6800985386908</v>
+        <v>10.68009853869079</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6061068930643035</v>
@@ -1449,7 +1449,7 @@
         <v>0.552590268122554</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4038473256696964</v>
+        <v>0.4038473256696962</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>9.106364460019829</v>
+        <v>9.069812110886327</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>10.36633153416149</v>
+        <v>10.13755664497157</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.037533646515126</v>
+        <v>8.26957689953605</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.439108374671994</v>
+        <v>8.611728575689828</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4787811522119808</v>
+        <v>0.4739062632373653</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5220408394744879</v>
+        <v>0.5099626178754784</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4168086763669682</v>
+        <v>0.4258566168308017</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.305491411603634</v>
+        <v>0.3089784977971205</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.10185231098269</v>
+        <v>13.15484631881396</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.42179135459186</v>
+        <v>14.37544784990567</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.19092632573419</v>
+        <v>12.30351391993472</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.64221271788105</v>
+        <v>12.84302438958757</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.7674264391248016</v>
+        <v>0.765723490300423</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8141130053452381</v>
+        <v>0.8107538122699096</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6950677199651886</v>
+        <v>0.691899771355026</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5015557703878846</v>
+        <v>0.5096708228709804</v>
       </c>
     </row>
     <row r="31">
